--- a/SAO_FRANCISCO_DE_PAULA.xlsx
+++ b/SAO_FRANCISCO_DE_PAULA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8E2C71-8C5F-47A3-9C53-845A7BD050F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1989110F-A2E5-468D-B79B-8A3D96C6B08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,7 +1173,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{81984184-14D1-43C3-9F94-DB45561F94A6}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{2078C63C-5274-44A1-AEA6-810E44C6F358}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,10 +1203,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C909A3A6-EDE9-440D-AF4F-8E90E0414980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541DD31F-1775-49A5-8B48-FDE808A44C8B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1244,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B2FF37-117C-44CF-9855-B25450B73391}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE6E19D-8103-4373-8929-F0D7E9E8EF77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1307,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1207D5BF-8A6B-4FCC-8949-E0C5BF2224DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6478FF9A-BD1A-4953-BE93-554CB19D85D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1326,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E08FA7E-2C83-AFC3-B8C9-94252F21D5D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9629CAE5-81C1-3F2B-117D-BCDC0353A1E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1375,7 +1375,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBD8328-9252-33BE-BD67-ECD21954121F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE976C3D-41CD-E50C-9B8D-F235B3241E9E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1394,7 +1394,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CC9D13-9CED-78D1-65B2-1F44A82DD64B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222F5AE4-836D-A7E8-96ED-B7DAA7CBCF8E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1425,7 +1425,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2DC026-D63B-F344-6100-58767EEDDA8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD010AD-6A2C-1E50-B3B9-0393013E667F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7FE6B6-8815-1E52-B2E2-0467CE9D442A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1E6DE7-4700-F467-019D-DB009E9CE94A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6108469-5962-4C18-9663-F08BFA195CD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00B0882-F775-4B86-A2D9-ED497781231B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1537,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC5C7ED-66F1-414A-892C-469F51ABC63F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB6D722-7386-4D9B-B216-07B4C27FAE34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D04A9B7-F9E8-460B-91CB-EAE70DCA2724}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA98F1EE-0060-4F25-B586-3026A7325BAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA763350-CC21-445E-B98C-F4333618449F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A44FAF-642B-47D4-A70A-DEA19FE8839D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_FRANCISCO_DE_PAULA.xlsx
+++ b/SAO_FRANCISCO_DE_PAULA.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1989110F-A2E5-468D-B79B-8A3D96C6B08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7228EF-F9DD-40FD-AEB7-79B6700BB53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="5" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="287">
   <si>
     <t>Número</t>
   </si>
@@ -886,15 +885,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SAO FRANCISCO DE PAULA</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1150,30 +1140,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2078C63C-5274-44A1-AEA6-810E44C6F358}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{78F02626-0B02-4C81-ADE6-9686ECE0953E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,10 +1175,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541DD31F-1775-49A5-8B48-FDE808A44C8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0829E2-3D83-4A06-9AAF-C7F089CD1F72}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1216,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE6E19D-8103-4373-8929-F0D7E9E8EF77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7429C8F0-E5D2-4D9A-8347-68548FB590CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1279,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6478FF9A-BD1A-4953-BE93-554CB19D85D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15A1DB3-FFC4-44A3-8761-1628A61185D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1298,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9629CAE5-81C1-3F2B-117D-BCDC0353A1E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B530AC-2689-1138-9583-B3F4AA1F62DA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1375,7 +1347,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE976C3D-41CD-E50C-9B8D-F235B3241E9E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F97404-BBFA-E412-28FD-E3F49D695E1E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1394,7 +1366,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222F5AE4-836D-A7E8-96ED-B7DAA7CBCF8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70957E2-420C-1C5C-30E1-D059A6DC465D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1425,7 +1397,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD010AD-6A2C-1E50-B3B9-0393013E667F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65970F72-C779-5B37-9B0E-C8D0BAF7AC64}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1456,7 +1428,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1E6DE7-4700-F467-019D-DB009E9CE94A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A390FE1-BFCD-3D9F-F272-A76E70B7E150}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1471,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00B0882-F775-4B86-A2D9-ED497781231B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C370523-690F-41AD-992E-17AEE9992990}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1509,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB6D722-7386-4D9B-B216-07B4C27FAE34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF478633-4875-494E-9DBE-655504C7E644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1552,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA98F1EE-0060-4F25-B586-3026A7325BAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65105AF5-FA96-4F7E-AD24-9CC70939C9DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A44FAF-642B-47D4-A70A-DEA19FE8839D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51311A7C-E5EB-4BDB-B23C-31B29059FBD1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1905,98 +1877,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5377,52 +5349,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="32">
-        <v>64</v>
-      </c>
-      <c r="C2" s="30">
-        <v>4.2322444121147993E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_FRANCISCO_DE_PAULA.xlsx
+++ b/SAO_FRANCISCO_DE_PAULA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7228EF-F9DD-40FD-AEB7-79B6700BB53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E149B41-DF11-409C-B710-39607E325ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,7 +1145,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{78F02626-0B02-4C81-ADE6-9686ECE0953E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CC2FF438-5E54-4DBB-B77E-283A369AC8B8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,10 +1175,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0829E2-3D83-4A06-9AAF-C7F089CD1F72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE84C6A0-1418-4018-B913-097ED2B3B89C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,7 +1216,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7429C8F0-E5D2-4D9A-8347-68548FB590CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50763FBE-92A5-463F-B50A-E60F855568E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15A1DB3-FFC4-44A3-8761-1628A61185D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4852592A-7D44-4D06-8CFF-E83F377C9D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1298,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B530AC-2689-1138-9583-B3F4AA1F62DA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE7943C-ED3D-2D2C-8CAB-2753FF0D5ACE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F97404-BBFA-E412-28FD-E3F49D695E1E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC872D3E-6C82-0960-9D6D-06DD64561050}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1366,7 +1366,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70957E2-420C-1C5C-30E1-D059A6DC465D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8ED172D-E0DE-7B9B-DD59-056280081B90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65970F72-C779-5B37-9B0E-C8D0BAF7AC64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826E3D49-9969-2E64-5BBC-FFFA2EF2F8B3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A390FE1-BFCD-3D9F-F272-A76E70B7E150}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB69DD3-F565-A16C-A816-70D825F76CC2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C370523-690F-41AD-992E-17AEE9992990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAE265C-CF12-4509-B47E-4F29E3A193F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF478633-4875-494E-9DBE-655504C7E644}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC34F55-719E-4914-8B8F-B56B48885145}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,50 +1534,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65105AF5-FA96-4F7E-AD24-9CC70939C9DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1865,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51311A7C-E5EB-4BDB-B23C-31B29059FBD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3CF9A8-D645-47C4-AA43-A15B8E563AEC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_FRANCISCO_DE_PAULA.xlsx
+++ b/SAO_FRANCISCO_DE_PAULA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E149B41-DF11-409C-B710-39607E325ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA06A97-88FA-4783-B662-F0D353591693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,14 +897,6 @@
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -932,6 +924,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1023,21 +1023,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1071,6 +1056,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1078,74 +1078,74 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CC2FF438-5E54-4DBB-B77E-283A369AC8B8}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E98B36F0-34C0-4FA1-8EC9-5DFBC33CAF2B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,7 +1175,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE84C6A0-1418-4018-B913-097ED2B3B89C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077017C1-0889-4F73-B4D4-F50ECDA925C8}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1216,7 +1216,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50763FBE-92A5-463F-B50A-E60F855568E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1FFD4F-4599-4770-9C2D-320FDB50F461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4852592A-7D44-4D06-8CFF-E83F377C9D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CCA9CF3-2B31-4D01-A871-429ED40C5366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1298,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE7943C-ED3D-2D2C-8CAB-2753FF0D5ACE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9133420C-EC2F-582D-E262-0CDC5E75AEF8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC872D3E-6C82-0960-9D6D-06DD64561050}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA613127-F843-05F3-B113-93E514ADC8DE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1366,7 +1366,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8ED172D-E0DE-7B9B-DD59-056280081B90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FC5BC7-6F90-947F-C3BC-FC0464F9CFAA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826E3D49-9969-2E64-5BBC-FFFA2EF2F8B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAD358C-3FEC-8D2D-C8FA-A11440D58A7A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB69DD3-F565-A16C-A816-70D825F76CC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9156BCF6-B15A-5657-DF76-1D75FF7D2B79}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAE265C-CF12-4509-B47E-4F29E3A193F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBE2BF4-90B4-42AD-BEBD-FF4B02789AA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC34F55-719E-4914-8B8F-B56B48885145}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27ADE513-FB92-4804-9DEE-AC35CEA27FB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3CF9A8-D645-47C4-AA43-A15B8E563AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59C15D2-AE6D-453D-8CD0-3704C5861E15}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
